--- a/practice_P2P/test_data/test_data.xlsx
+++ b/practice_P2P/test_data/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>case_id</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>result</t>
+  </si>
+  <si>
+    <t>test_result</t>
   </si>
   <si>
     <t>http://119.23.241.154:8080/futureloan/mvc/api/member/login</t>
@@ -113,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -144,39 +147,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,94 +274,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -288,19 +291,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,163 +453,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,25 +519,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,17 +554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -580,17 +569,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,10 +605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,16 +617,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,129 +635,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1111,24 +1120,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="60.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="51.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="60.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="51.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9" style="5"/>
+    <col min="8" max="8" width="15.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,73 +1160,88 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4">
+    <row r="2" spans="1:6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5">
+        <v>10001</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4">
+    <row r="3" spans="1:6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
+        <v>20103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
+      <c r="F4" s="5">
+        <v>20110</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
+      <c r="F5" s="5">
+        <v>20111</v>
       </c>
     </row>
   </sheetData>
@@ -1235,22 +1260,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="65.25" customWidth="1"/>
     <col min="3" max="3" width="49.75" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="22.75" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,63 +1298,69 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4">
+    <row r="2" spans="1:8">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4">
+    <row r="3" spans="1:8">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4">
+    <row r="4" spans="1:8">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1345,22 +1377,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="65" customWidth="1"/>
     <col min="3" max="3" width="52.875" customWidth="1"/>
     <col min="4" max="4" width="17.625" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1382,101 +1415,109 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/practice_P2P/test_data/test_data.xlsx
+++ b/practice_P2P/test_data/test_data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="register" sheetId="2" r:id="rId2"/>
     <sheet name="recharge" sheetId="3" r:id="rId3"/>
+    <sheet name="init" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>case_id</t>
   </si>
@@ -69,13 +70,13 @@
     <t>http://119.23.241.154:8080/futureloan/mvc/api/member/register</t>
   </si>
   <si>
-    <t>{"mobilephone": "15096099001", "pwd": "123456"}</t>
+    <t>{"mobilephone": "${tel_1}", "pwd": "123456"}</t>
   </si>
   <si>
     <t>正常注册</t>
   </si>
   <si>
-    <t>{"mobilephone": "15096099002", "pwd": ""}</t>
+    <t>{"mobilephone": "${tel}", "pwd": ""}</t>
   </si>
   <si>
     <t>重复注册</t>
@@ -109,6 +110,12 @@
   </si>
   <si>
     <t>金额为3个小数点</t>
+  </si>
+  <si>
+    <t>测试数据</t>
+  </si>
+  <si>
+    <t>未注册的手机号</t>
   </si>
 </sst>
 </file>
@@ -147,6 +154,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -154,55 +168,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,22 +222,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,23 +243,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,9 +273,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,19 +298,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,163 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,41 +507,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,30 +533,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,6 +556,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -605,165 +612,159 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1122,20 +1123,20 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="60.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="51.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="15.75" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="60.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="51.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="15.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1160,87 +1161,87 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>10001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>20103</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>20110</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>20111</v>
       </c>
     </row>
@@ -1263,7 +1264,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1298,69 +1299,69 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1415,109 +1416,109 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="6"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1531,4 +1532,38 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>15555500000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/practice_P2P/test_data/test_data.xlsx
+++ b/practice_P2P/test_data/test_data.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="register" sheetId="2" r:id="rId2"/>
     <sheet name="recharge" sheetId="3" r:id="rId3"/>
-    <sheet name="init" sheetId="4" r:id="rId4"/>
+    <sheet name="invest" sheetId="5" r:id="rId4"/>
+    <sheet name="business" sheetId="6" r:id="rId5"/>
+    <sheet name="init" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
   <si>
     <t>case_id</t>
   </si>
@@ -112,10 +114,67 @@
     <t>金额为3个小数点</t>
   </si>
   <si>
+    <t>{"mobilephone": "${normal_tel}", "pwd": "123456"}</t>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/bidLoan</t>
+  </si>
+  <si>
+    <t>{"memberId": "${memberID}", "password": "123456","loanId":"${loanId}","amount":"100"}</t>
+  </si>
+  <si>
+    <t>正常投资</t>
+  </si>
+  <si>
+    <t>{"memberId": "${memberID}", "password": "123456","loanId":"${loanId}","amount":""}</t>
+  </si>
+  <si>
+    <t>{"memberId": "${memberID}", "password": "123456","loanId":"${loanId}","amount":"-100"}</t>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8080/futureloan/mvc/api/loan/add</t>
+  </si>
+  <si>
+    <t>{"memberId": "${loan_member_id}", "title": "借钱买房","amount":20000,"loanRate":"12.0","loanTerm":3,"loanDateType":0,"repaymemtWay":11,"biddingDays":5}</t>
+  </si>
+  <si>
+    <t>加标</t>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8080/futureloan/mvc/api/loan/aduit</t>
+  </si>
+  <si>
+    <t>{"id": "${loan_id}", "status": 4}</t>
+  </si>
+  <si>
+    <t>审核</t>
+  </si>
+  <si>
     <t>测试数据</t>
   </si>
   <si>
+    <t>tel</t>
+  </si>
+  <si>
     <t>未注册的手机号</t>
+  </si>
+  <si>
+    <t>normal_tel</t>
+  </si>
+  <si>
+    <t>充值投资专用</t>
+  </si>
+  <si>
+    <t>admin_tel</t>
+  </si>
+  <si>
+    <t>管理账号加标</t>
+  </si>
+  <si>
+    <t>loan_member_id</t>
+  </si>
+  <si>
+    <t>借钱的用户id</t>
   </si>
 </sst>
 </file>
@@ -123,10 +182,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -167,6 +226,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -182,6 +264,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -190,8 +316,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,82 +342,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -316,6 +375,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -334,6 +405,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -352,12 +429,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,6 +507,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -382,43 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,54 +538,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,6 +566,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -518,6 +586,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,39 +649,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,160 +671,169 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1129,119 +1197,119 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="60.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="51.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="15.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="60.875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="51.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9" style="7"/>
+    <col min="8" max="8" width="15.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>10001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <v>20103</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>20110</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>20111</v>
       </c>
     </row>
@@ -1278,90 +1346,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1381,7 +1449,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H6"/>
+      <selection activeCell="A1" sqref="$A1:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1395,130 +1463,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1537,29 +1605,313 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="72.25" customWidth="1"/>
+    <col min="3" max="3" width="57.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" ht="27" spans="1:8">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" ht="27" spans="1:8">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" ht="27" spans="1:8">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/bidLoan" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/bidLoan"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/bidLoan" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/bidLoan"/>
+    <hyperlink ref="B5" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/bidLoan" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/bidLoan"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="66.25" customWidth="1"/>
+    <col min="3" max="3" width="52.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" ht="40.5" spans="1:8">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/loan/add" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/loan/add"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://119.23.241.154:8080/futureloan/mvc/api/loan/aduit" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/loan/aduit"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="1" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>15555500000</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>15555500001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>15555500002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>11111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
